--- a/dataset/processed/cleaned/Cleaned Samity Data.xlsx
+++ b/dataset/processed/cleaned/Cleaned Samity Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Branch Code</t>
+          <t>Branch Information</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Samity Code</t>
+          <t>Center Code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -461,306 +461,4023 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Samity Day</t>
+          <t>Center Day</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Samity Type</t>
+          <t>Center Type</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Samity Opening Date</t>
+          <t>Center Opening Date</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Maximum Member of Samity</t>
+          <t>Maximum Member of Center</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001-001</t>
+          <t>056-001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LAMP 1</t>
+          <t>Daniapara Pubali MS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>area3</t>
+          <t>Abu Kalam House</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Test Employee</t>
+          <t>30381</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2004-09-06</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>1996-01-01</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001-005</t>
+          <t>056-002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dollan Chapa</t>
+          <t>Daniapara 1No MS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>area4</t>
+          <t>Nur Jahan Begum House</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Test_emp</t>
+          <t>30381</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2005-04-14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>1990-05-01</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001-006</t>
+          <t>056-003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Golap</t>
+          <t>Daniapara 2No MS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>migration_area</t>
+          <t>Masuda Begum House</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Test Employee</t>
+          <t>30381</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1997-06-11</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
+          <t>1997-01-16</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001-007</t>
+          <t>056-004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Modhomoti</t>
+          <t>Dhokhin Tajpur Jagoroni MS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>migration_area2</t>
+          <t>Maya Begum House</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Test_emp</t>
+          <t>30381</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1999-01-06</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>2003-02-09</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001-008</t>
+          <t>056-005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jamuna</t>
+          <t>Dhokhin Tajpur Udayon MS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>area5</t>
+          <t>Ajimon Begum House</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Test Employee</t>
+          <t>30381</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1999-06-11</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>1997-07-17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001-009</t>
+          <t>056-006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dowel</t>
+          <t>Abirpara Sonoli MS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>area6</t>
+          <t>Masuda Begum House</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Test_emp</t>
+          <t>30381</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2005-06-26</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>2003-02-27</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>056-007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Dhokhin Tajpur Akota MS</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Eysmin Begum House</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1997-07-03</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>056-008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Daniapara Shapla MS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Nasima Begum House</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2002-02-21</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>056-009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chokdarpara 1No MS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bipasa Rani House</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1991-06-01</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>056-010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chokdarpara Gorib MS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sanu Begum House</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2009-04-14</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>056-011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Santoshpara 1No MS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sima Das House</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1990-03-18</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>056-012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Santoshpara 2No MS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Nur Jahan Begum House</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1998-03-10</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>056-013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Santoshpara 4No MS</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Aroti Rani House</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1996-06-11</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>056-014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Santoshpara Golap MS</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dipali Rani House</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2009-01-14</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>056-015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Uttar Tajpur Kiron MS</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Shalma Begum House</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1996-01-16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>056-016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Dhokhin Tajpur Sromik PS</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Dilip Chandra Das House</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1998-04-05</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>056-017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Modo Tajpur PS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Subas das House</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1998-02-27</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>056-018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Daniapara PS</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Rafiq Khan House</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1998-02-25</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>056-019</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Santoshpara Moshozibi PS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tapon Das House</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1997-05-01</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>056-020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Paschim Kola Surjomukhi MS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Morjina Begum House</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2004-02-12</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>056-021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Dhokhin Kola Shapla MS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Asma Begum House</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2010-05-29</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>056-022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Kusumpur  MS</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Asma Begum House</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1998-06-21</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>056-023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chatiantoli  MS</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Amana Begum House</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2009-06-21</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>056-024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Purbo Kola 1No MS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Karimon Begum House</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1996-04-20</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>056-025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Paschim Kola 2No  MS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Maymunasa Vano House</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1998-06-08</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>056-026</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Paschim Kola 1No  MS</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Josna Begum House</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1996-07-15</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>056-027</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Gauripura  MS</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Shalma Begum House</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1997-09-25</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>056-028</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Dhokhin kola Uttaron  MS</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Laboni Bari</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1996-05-20</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>056-029</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Paschim kola Chadtara  MS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Alaya Begum House</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1996-07-15</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>056-030</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Paschim Tajpur  MS</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Hasu Begum House</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2006-01-09</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>056-031</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Paschim Tharigoan Jonaki   MS</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Aysha Begum House</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1996-05-20</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>056-032</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Daniapara Bally  MS</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mala Rani  House</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2011-01-20</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>056-033</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Kusumpur  Ashar Alo  PS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Alaya Begum House</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2007-07-27</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>056-034</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Purbo Kola  PS</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Samad  House</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2009-02-23</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>056-035</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Paschim Kola  PS</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Shek Mostafa  House</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1986-02-15</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>056-036</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Uttar Nondonkona 1No MS</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Baby Begum House</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1986-01-01</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>056-037</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Uttar Nondonkona 2No MS</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Najimon House</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1990-07-02</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>056-038</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Uttar Nondonkona 3No MS</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Halima Begum House</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2005-02-12</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>056-039</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Paschim Nondonkona pasbari  MS</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Taslima House</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1994-10-29</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>056-040</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Nondonkona Golap  MS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Jannatol Ferdus House</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2008-03-03</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>056-041</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Hatorpara Chakroban   MS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Farida Begum House</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1999-05-23</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>056-042</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Hatorpara Vumihin  MS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Masuda Begum House</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2006-06-22</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>056-043</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Jibsora 2No  MS</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Pakhi Begum House</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1994-10-05</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>056-044</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Paravom 1No  MS</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Dilura House</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1990-08-29</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>056-045</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Paravom 2No  MS</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Milon Begum House</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2004-03-04</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>056-046</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Tharigoan Bakul  MS</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Rimu Begum House</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2008-11-26</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>056-047</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Gauripura Akota  MS</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Anjali Rani House</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1998-05-11</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>056-048</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Gauripura Vumihin  MS</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Rekha Rani House</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2008-06-15</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>056-049</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Uttar Kola  MS</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Shova Rani House</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1996-01-01</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>056-050</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Uttar Tajpur Shapla  MS</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Moli  Rojaro House</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2005-11-29</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>056-051</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Tharigoan Shorosoti 1No MS</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sheuli Begum House</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1998-01-01</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>056-052</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Tharigoan Vumihin  MS</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Shipy Rani House</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1988-01-01</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>056-053</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Nondonkona  PS</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Habul Shekh House</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2007-01-30</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>056-054</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Uttar Kola  PS</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Nani Gopal House</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1999-05-23</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>056-055</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Tharigoan Vumihin  PS</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Manoranjan House</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1994-05-15</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>056-056</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Uttar Tajpur 2No  MS</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Rujina Begum House</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2000-05-15</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>056-057</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Uttar Tajpur 3No  MS</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Sefali Begum House</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2005-12-20</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>056-058</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Uttar Tajpur 4No  MS</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Sheoli Begum House</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2010-12-04</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>056-059</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Dhamalia Fulmaloty  MS</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sefali Begum House</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1992-10-17</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>056-060</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Dhamalia Bandon  MS</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rahaima Begum House</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2012-03-09</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>056-061</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Dhamalia 2No  MS</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Rehena Begum House</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1988-09-05</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>056-062</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Daniapara Golap  MS</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Rahima Begum House</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2009-01-05</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>056-063</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Rasunia Bangalpara  MS</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Sumitra Rani Das House</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1996-02-12</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>056-064</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Khillapara Jonata  MS</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Shahanaz Begum House</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2005-08-02</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>056-065</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Khillapara Rupali  MS</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Sheplu Begum House</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1998-06-23</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>056-066</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Dhokhin Tajpur Togor MS</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Salma Begum House</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2009-06-16</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>056-067</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Rasunia Vumihin 1No  MS</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sila Rani Mondal House</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2003-12-03</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>056-068</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Rasunia Jui  MS</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Tanjila Begum House</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2009-07-01</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>056-069</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Rasunia Shapla  MS</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Moyna Begum House</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2010-03-10</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>056-070</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Chormordan Monipara  MS</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Sabita Rani House</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>1987-06-10</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>056-071</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Chormordan Rupali  MS</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Raseda Begum House</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1998-03-24</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>056-072</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sirajdikhan Esamoty  MS</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Nargis Begum House</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2009-06-16</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>056-073</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Dhokhin Tajpur  PS</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Anower Hossein House</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1998-01-11</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>056-074</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Uttar Rohkithpara 2No  MS</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Sahanaz Begum House</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1987-04-20</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>056-075</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Rasunia Vumihin  PS</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Jibon Shill House</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2001-02-14</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>056-076</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Prochesta PS</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Nasir Shak House</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2017-02-01</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>056-077</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Rasunia Padma MS</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Bithi Begum House</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2017-10-05</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>056-078</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Dhokhin Nondonkona Shapla MS</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Beiuty Begum House</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2017-10-17</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>056-079</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Daniapara Mohila  MS</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Masuda Begum House</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2017-10-19</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>056-080</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Daniapara Jui Mohila  MS</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ranu Rani House</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2018-03-15</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>056-081</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Nondonkona Bally  MS</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Happy Begum House</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2018-04-15</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>056-082</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Rasunia Maghna MS</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Bithi Begum House</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2018-05-31</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>056-083</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Hironer Khilgoan Golap MS</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Sahida Begum House</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2018-10-04</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>056-084</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Paschim Kola Jagoroni MS</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Dolla Akter House</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2018-10-13</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>056-085</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Doyhata 1 No MS</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Alaya Begum House</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>056-086</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Chormordan Sonali  MS</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Akhi Begum House</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2018-12-02</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>056-087</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Daniapara Surjomukhi MS</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Akhi Begum House</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2019-02-14</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>056-088</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Chokdarpara 2No MS</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Hasina Begum House</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>30381</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2015-06-02</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>056-089</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Hatorpara Joba MS</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Juti Begum House</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2009-06-16</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>056-090</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Paravom 3No MS</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Asma Begum House</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>30446</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2005-05-29</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>056-091</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Rasunia Vumihin 2No  MS</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Sajeda Begum House</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>30451</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1999-07-14</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>056-092</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Tharigoan Shorosoti 2No MS</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Gita Rani House</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2005-08-11</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>056-093</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Uttar Rohkhitpara 1 No  MS</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Mafuja Begum House</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>30484</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>1987-04-20</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
